--- a/biology/Zoologie/Acmarhachis/Acmarhachis.xlsx
+++ b/biology/Zoologie/Acmarhachis/Acmarhachis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acmarhachis est un genre fossile de trilobites primitifs ayant vécu au Cambrien, Il appartient à l'ordre des Agnostida et à la famille des Agnostidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acmarhachis est décrit en 1938 par le paléontologue américain Charles Elmer Resser (1889-1943)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acmarhachis est décrit en 1938 par le paléontologue américain Charles Elmer Resser (1889-1943).
 </t>
         </is>
       </c>
@@ -542,18 +556,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A. typicalis Resser, 1938 (type)
 A. acuta (Kobayashi, 1938)
 A. anhuiensis (Qiu, 1983) synonyme Wanagnostus anhuiensis
 A. apicula Öpik, 1967 synonyme Oxyagnostus apicula
-A. elegans (Lermontova, 1940)[2] synonyme Cyclagnostus elegans Lerm., 1940 - Cambrien supérieur de l'U.R.S.S.
+A. elegans (Lermontova, 1940) synonyme Cyclagnostus elegans Lerm., 1940 - Cambrien supérieur de l'U.R.S.S.
 A. karatauensis Ergaliev, 1980
 A. longispinus Ergaliev, 1980
 A. punctatus Ergaliev, 1980
-A. whittingtoni Westrop &amp; Eoff, 2012[3]
+A. whittingtoni Westrop &amp; Eoff, 2012
 </t>
         </is>
       </c>
